--- a/stationarity_test/KLDivergenceTest/FeedbackLog/p14-faa-0ms.xlsx
+++ b/stationarity_test/KLDivergenceTest/FeedbackLog/p14-faa-0ms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanadsaha92/Desktop/Research_Experiments/imMens-Interactions/stationarity_test/KLDivergenceTest/FeedbackLog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13152D53-97A3-CA4D-9FE1-6590D72F5D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B10D081-FCC3-8F4D-B552-DCCEB27AF037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="98">
   <si>
     <t>proposition</t>
   </si>
@@ -338,7 +338,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -353,6 +353,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -375,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -393,6 +399,9 @@
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6694,10 +6703,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:H997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6740,7 +6749,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -6764,7 +6773,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -6788,7 +6797,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -6812,7 +6821,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6836,7 +6845,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>92</v>
@@ -6860,7 +6869,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>92</v>
@@ -6908,7 +6917,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -6932,7 +6941,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -6956,7 +6965,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>92</v>
@@ -6980,7 +6989,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>92</v>
@@ -7028,7 +7037,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -7052,7 +7061,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -7076,7 +7085,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -7100,7 +7109,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -7196,7 +7205,7 @@
         <v>36</v>
       </c>
       <c r="B21" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
@@ -7220,7 +7229,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>9</v>
@@ -7244,7 +7253,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>92</v>
@@ -7268,7 +7277,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>9</v>
@@ -7292,7 +7301,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
@@ -7316,7 +7325,7 @@
         <v>41</v>
       </c>
       <c r="B26" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>9</v>
@@ -7337,22 +7346,22 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="4">
-        <v>3.7499999999999999E-3</v>
+        <v>3.9236111111111104E-3</v>
       </c>
       <c r="G27" s="2">
         <v>2</v>
@@ -7361,22 +7370,22 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="4">
-        <v>3.9236111111111104E-3</v>
+        <v>3.9930555555555552E-3</v>
       </c>
       <c r="G28" s="2">
         <v>2</v>
@@ -7385,10 +7394,10 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
@@ -7400,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="4">
-        <v>3.9930555555555552E-3</v>
+        <v>4.0972222222222208E-3</v>
       </c>
       <c r="G29" s="2">
         <v>2</v>
@@ -7409,10 +7418,10 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>9</v>
@@ -7424,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="4">
-        <v>4.0972222222222208E-3</v>
+        <v>4.1666666666666657E-3</v>
       </c>
       <c r="G30" s="2">
         <v>2</v>
@@ -7433,22 +7442,22 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
       </c>
       <c r="F31" s="4">
-        <v>4.1666666666666657E-3</v>
+        <v>4.3981481481481476E-3</v>
       </c>
       <c r="G31" s="2">
         <v>2</v>
@@ -7457,22 +7466,22 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
       </c>
       <c r="F32" s="4">
-        <v>4.3981481481481476E-3</v>
+        <v>4.5601851851851845E-3</v>
       </c>
       <c r="G32" s="2">
         <v>2</v>
@@ -7481,22 +7490,22 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" s="4">
-        <v>4.5601851851851845E-3</v>
+        <v>4.6759259259259237E-3</v>
       </c>
       <c r="G33" s="2">
         <v>2</v>
@@ -7505,10 +7514,10 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>9</v>
@@ -7520,7 +7529,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="4">
-        <v>4.6759259259259237E-3</v>
+        <v>4.733796296296295E-3</v>
       </c>
       <c r="G34" s="2">
         <v>2</v>
@@ -7529,22 +7538,22 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F35" s="4">
-        <v>4.733796296296295E-3</v>
+        <v>4.7800925925925927E-3</v>
       </c>
       <c r="G35" s="2">
         <v>2</v>
@@ -7553,10 +7562,10 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>9</v>
@@ -7568,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="4">
-        <v>4.7800925925925927E-3</v>
+        <v>4.8379629629629606E-3</v>
       </c>
       <c r="G36" s="2">
         <v>2</v>
@@ -7577,7 +7586,7 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -7586,13 +7595,13 @@
         <v>9</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
       </c>
       <c r="F37" s="4">
-        <v>4.8379629629629606E-3</v>
+        <v>4.9305555555555561E-3</v>
       </c>
       <c r="G37" s="2">
         <v>2</v>
@@ -7601,22 +7610,22 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
       </c>
       <c r="F38" s="4">
-        <v>4.9305555555555561E-3</v>
+        <v>5.4166666666666669E-3</v>
       </c>
       <c r="G38" s="2">
         <v>2</v>
@@ -7625,22 +7634,22 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B39" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
       </c>
       <c r="F39" s="4">
-        <v>5.4166666666666669E-3</v>
+        <v>5.5555555555555532E-3</v>
       </c>
       <c r="G39" s="2">
         <v>2</v>
@@ -7649,22 +7658,22 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
       </c>
       <c r="F40" s="4">
-        <v>5.5555555555555532E-3</v>
+        <v>5.8333333333333327E-3</v>
       </c>
       <c r="G40" s="2">
         <v>2</v>
@@ -7673,22 +7682,22 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
       </c>
       <c r="F41" s="4">
-        <v>5.7523148148148143E-3</v>
+        <v>6.0416666666666674E-3</v>
       </c>
       <c r="G41" s="2">
         <v>2</v>
@@ -7697,22 +7706,22 @@
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B42" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42" s="4">
-        <v>5.8333333333333327E-3</v>
+        <v>6.2847222222222228E-3</v>
       </c>
       <c r="G42" s="2">
         <v>2</v>
@@ -7721,22 +7730,22 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B43" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43" s="4">
-        <v>6.0416666666666674E-3</v>
+        <v>6.3425925925925906E-3</v>
       </c>
       <c r="G43" s="2">
         <v>2</v>
@@ -7745,22 +7754,22 @@
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" s="4">
-        <v>6.1921296296296273E-3</v>
+        <v>6.3773148148148148E-3</v>
       </c>
       <c r="G44" s="2">
         <v>2</v>
@@ -7769,10 +7778,10 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B45" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>9</v>
@@ -7784,7 +7793,7 @@
         <v>2</v>
       </c>
       <c r="F45" s="4">
-        <v>6.2847222222222228E-3</v>
+        <v>6.4351851851851827E-3</v>
       </c>
       <c r="G45" s="2">
         <v>2</v>
@@ -7793,22 +7802,22 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B46" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E46" s="1">
         <v>2</v>
       </c>
       <c r="F46" s="4">
-        <v>6.3425925925925906E-3</v>
+        <v>6.5393518518518517E-3</v>
       </c>
       <c r="G46" s="2">
         <v>2</v>
@@ -7817,10 +7826,10 @@
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>9</v>
@@ -7832,7 +7841,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="4">
-        <v>6.3773148148148148E-3</v>
+        <v>6.6550925925925909E-3</v>
       </c>
       <c r="G47" s="2">
         <v>2</v>
@@ -7841,10 +7850,10 @@
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B48" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>9</v>
@@ -7853,10 +7862,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" s="4">
-        <v>6.4351851851851827E-3</v>
+        <v>6.7939814814814807E-3</v>
       </c>
       <c r="G48" s="2">
         <v>2</v>
@@ -7865,22 +7874,22 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B49" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E49" s="1">
         <v>2</v>
       </c>
       <c r="F49" s="4">
-        <v>6.5393518518518517E-3</v>
+        <v>7.1527777777777753E-3</v>
       </c>
       <c r="G49" s="2">
         <v>2</v>
@@ -7889,10 +7898,10 @@
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B50" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>9</v>
@@ -7904,7 +7913,7 @@
         <v>2</v>
       </c>
       <c r="F50" s="4">
-        <v>6.6550925925925909E-3</v>
+        <v>7.291666666666665E-3</v>
       </c>
       <c r="G50" s="2">
         <v>2</v>
@@ -7913,10 +7922,10 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B51" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>9</v>
@@ -7925,10 +7934,10 @@
         <v>10</v>
       </c>
       <c r="E51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="4">
-        <v>6.7939814814814807E-3</v>
+        <v>7.3611111111111099E-3</v>
       </c>
       <c r="G51" s="2">
         <v>2</v>
@@ -7937,34 +7946,34 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B52" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E52" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F52" s="4">
-        <v>7.1527777777777753E-3</v>
+        <v>7.9745370370370369E-3</v>
       </c>
       <c r="G52" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B53" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>9</v>
@@ -7973,58 +7982,58 @@
         <v>10</v>
       </c>
       <c r="E53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" s="4">
-        <v>7.291666666666665E-3</v>
+        <v>8.1828703703703681E-3</v>
       </c>
       <c r="G53" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B54" s="1">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E54" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54" s="4">
-        <v>7.3611111111111099E-3</v>
+        <v>8.2407407407407395E-3</v>
       </c>
       <c r="G54" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
       </c>
       <c r="F55" s="4">
-        <v>7.9745370370370369E-3</v>
+        <v>8.3449074074074051E-3</v>
       </c>
       <c r="G55" s="2">
         <v>3</v>
@@ -8033,22 +8042,22 @@
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B56" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="4">
-        <v>8.1828703703703681E-3</v>
+        <v>8.8078703703703687E-3</v>
       </c>
       <c r="G56" s="2">
         <v>3</v>
@@ -8057,22 +8066,22 @@
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
       </c>
       <c r="F57" s="4">
-        <v>8.2407407407407395E-3</v>
+        <v>9.1319444444444425E-3</v>
       </c>
       <c r="G57" s="2">
         <v>3</v>
@@ -8081,22 +8090,22 @@
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B58" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F58" s="4">
-        <v>8.3449074074074051E-3</v>
+        <v>9.1898148148148139E-3</v>
       </c>
       <c r="G58" s="2">
         <v>3</v>
@@ -8105,22 +8114,22 @@
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B59" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F59" s="4">
-        <v>8.8078703703703687E-3</v>
+        <v>9.4444444444444428E-3</v>
       </c>
       <c r="G59" s="2">
         <v>3</v>
@@ -8129,22 +8138,22 @@
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B60" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="4">
-        <v>9.1319444444444425E-3</v>
+        <v>9.5254629629629613E-3</v>
       </c>
       <c r="G60" s="2">
         <v>3</v>
@@ -8153,22 +8162,22 @@
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B61" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E61" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F61" s="4">
-        <v>9.1898148148148139E-3</v>
+        <v>9.6180555555555533E-3</v>
       </c>
       <c r="G61" s="2">
         <v>3</v>
@@ -8177,10 +8186,10 @@
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" s="1">
-        <v>0.25</v>
+        <v>85</v>
+      </c>
+      <c r="B62" s="6">
+        <v>0.1</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>9</v>
@@ -8189,82 +8198,82 @@
         <v>10</v>
       </c>
       <c r="E62" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" s="4">
-        <v>9.4444444444444428E-3</v>
+        <v>9.91898148148148E-3</v>
       </c>
       <c r="G62" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B63" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="4">
-        <v>9.5254629629629613E-3</v>
+        <v>9.9884259259259249E-3</v>
       </c>
       <c r="G63" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H63" s="5"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B64" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E64" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64" s="4">
-        <v>9.6180555555555533E-3</v>
+        <v>1.0451388888888889E-2</v>
       </c>
       <c r="G64" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H64" s="5"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B65" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="4">
-        <v>9.91898148148148E-3</v>
+        <v>1.0775462962962962E-2</v>
       </c>
       <c r="G65" s="2">
         <v>4</v>
@@ -8273,22 +8282,22 @@
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B66" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="4">
-        <v>9.9884259259259249E-3</v>
+        <v>1.0856481481481481E-2</v>
       </c>
       <c r="G66" s="2">
         <v>4</v>
@@ -8297,100 +8306,31 @@
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B67" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E67" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F67" s="4">
-        <v>1.0451388888888889E-2</v>
+        <v>1.1134259259259257E-2</v>
       </c>
       <c r="G67" s="2">
         <v>4</v>
       </c>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E68" s="1">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4">
-        <v>1.0775462962962962E-2</v>
-      </c>
-      <c r="G68" s="2">
-        <v>4</v>
-      </c>
-      <c r="H68" s="5"/>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1</v>
-      </c>
-      <c r="F69" s="4">
-        <v>1.0856481481481481E-2</v>
-      </c>
-      <c r="G69" s="2">
-        <v>4</v>
-      </c>
-      <c r="H69" s="5"/>
-    </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E70" s="1">
-        <v>0</v>
-      </c>
-      <c r="F70" s="4">
-        <v>1.1134259259259257E-2</v>
-      </c>
-      <c r="G70" s="2">
-        <v>4</v>
-      </c>
-      <c r="H70" s="5"/>
-    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9318,9 +9258,6 @@
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
